--- a/config/ProjectList.xlsx
+++ b/config/ProjectList.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/518289307e96aafe/Documents/VBAScripts/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1946" documentId="11_252E496339BCF27943E75E040AB72537C7003059" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2FD52AB-97F1-45A4-B619-59EE33C64787}"/>
+  <xr:revisionPtr revIDLastSave="2641" documentId="11_252E496339BCF27943E75E040AB72537C7003059" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD0923B4-387E-4DF7-849C-E9DBAFB1B25F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="579" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="1" r:id="rId1"/>
+    <sheet name="Interest" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Work!$A$1:$K$25</definedName>
-    <definedName name="ListItem" comment="Job description for use in cover letter generation.">Work!$I:$I</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Interest!$B$1:$I$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Work!$A$1:$K$24</definedName>
+    <definedName name="ListComp" comment="Company of each experience for use in cover letter generation.">Work!$C:$C</definedName>
+    <definedName name="ListDesc" comment="Job description for use in cover letter generation.">Work!$I:$I</definedName>
+    <definedName name="ListJobTitle" comment="Job title for use in cover letter generation.">Work!$D:$D</definedName>
     <definedName name="Order" comment="Column containing ordering of items">Work!$A:$A</definedName>
     <definedName name="Priority" comment="Order by importance.">Work!$B:$B</definedName>
-    <definedName name="Priority2">#REF!</definedName>
     <definedName name="SearchField" comment="Field for looking up relevant ListItem.">Work!$J:$J</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">Company </t>
   </si>
@@ -60,12 +63,23 @@
   </si>
   <si>
     <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>Work to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Job title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Associate Back-end Software Engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,33 +88,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>COBOL, SQL, AS/400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Notes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Enhanced COBOL program to extract RPA log data, to automate manual process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Excel macro automation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a macro based on steps provided by teammates in order to simplify year-end checking procedure, reducing workload and human error
-- Data sorting and entry
-- Generate PDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBA, Excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBA Developer</t>
+    <t>Tech Firm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -184,13 +188,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -236,6 +261,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -251,7 +280,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>2415540</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -262,6 +291,80 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:rPr>
+                <a:t>Merge Selected</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1112520</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>2621280</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -624,11 +727,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -637,8 +740,8 @@
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="12" customWidth="1"/>
     <col min="8" max="8" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="1" customWidth="1"/>
@@ -646,25 +749,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>10</v>
+      <c r="A1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -674,406 +777,393 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="90.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="25">
+        <v>201910</v>
+      </c>
+      <c r="F2" s="25">
+        <v>201910</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f t="shared" ref="G2:G24" si="0">IF(ISBLANK(F2), "Ongoing", IF(E2=F2,"&lt; 1 m", IF(LEFT(E2,4)=LEFT(F2,4),"",IF(RIGHT(E2, 2)&gt;RIGHT(F2, 2), IF(LEFT(F2,4)-LEFT(E2,4)-1=0,"", LEFT(F2,4)-LEFT(E2,4)-1&amp;" y "), LEFT(F2,4)-LEFT(E2,4)&amp;" y "))&amp;IF(RIGHT(F2, 2)=RIGHT(E2, 2),"",IF(RIGHT(E2, 2)&gt;RIGHT(F2, 2), RIGHT(F2, 2)-RIGHT(E2, 2)+12, RIGHT(F2, 2)-RIGHT(E2, 2))&amp;" m")))</f>
+        <v>&lt; 1 m</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4">
-        <v>202105</v>
-      </c>
-      <c r="F2" s="4">
-        <v>202108</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f t="shared" ref="G2" si="0">IF(ISBLANK(F2), "Ongoing", IF(E2=F2,"&lt; 1 m", IF(LEFT(E2,4)=LEFT(F2,4),"",IF(RIGHT(E2, 2)&gt;RIGHT(F2, 2), IF(LEFT(F2,4)-LEFT(E2,4)-1=0,"", LEFT(F2,4)-LEFT(E2,4)-1&amp;" y "), LEFT(F2,4)-LEFT(E2,4)&amp;" y "))&amp;IF(RIGHT(F2, 2)=RIGHT(E2, 2),"",IF(RIGHT(E2, 2)&gt;RIGHT(F2, 2), RIGHT(F2, 2)-RIGHT(E2, 2)+12, RIGHT(F2, 2)-RIGHT(E2, 2))&amp;" m")))</f>
-        <v>3 m</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="15"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="11"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="15"/>
-    </row>
-    <row r="33" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="15"/>
-    </row>
-    <row r="34" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="15"/>
-    </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="15"/>
-    </row>
-    <row r="39" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="15"/>
-    </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="15"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" spans="1:2" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="24"/>
+    </row>
+    <row r="34" spans="1:2" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" spans="1:2" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" spans="1:2" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24"/>
+    </row>
+    <row r="37" spans="1:2" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="24"/>
+    </row>
+    <row r="38" spans="1:2" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" spans="1:2" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K25" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K25">
+  <autoFilter ref="A1:K24" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
       <sortCondition ref="A1:A1048576"/>
     </sortState>
   </autoFilter>
@@ -1100,7 +1190,274 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>2415540</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:I19" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!MergeEmptyVertical">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1112520</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>2621280</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
